--- a/graph.xlsx
+++ b/graph.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
   <si>
     <t>n</t>
   </si>
@@ -22,13 +22,25 @@
     <t>cpt</t>
   </si>
   <si>
+    <t>sûr de gagner ?</t>
+  </si>
+  <si>
     <t>Grundy0</t>
+  </si>
+  <si>
+    <t>❌</t>
   </si>
   <si>
     <t>Grundy1</t>
   </si>
   <si>
     <t>Grundy2</t>
+  </si>
+  <si>
+    <t>Grundy3</t>
+  </si>
+  <si>
+    <t>Grundy4</t>
   </si>
 </sst>
 </file>
@@ -279,6 +291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -298,6 +311,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -320,6 +336,9 @@
       <c r="C3" s="1">
         <v>2.0</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -353,6 +372,9 @@
       <c r="C6" s="1">
         <v>18.0</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -386,6 +408,9 @@
       <c r="C9" s="1">
         <v>112.0</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
@@ -496,6 +521,9 @@
       <c r="C19" s="1">
         <v>1433262.0</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
@@ -540,6 +568,9 @@
       <c r="C23" s="1">
         <v>3.8440187E7</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
@@ -552,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -576,6 +607,9 @@
       <c r="C27" s="1">
         <v>2.0</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
@@ -609,6 +643,9 @@
       <c r="C30" s="1">
         <v>12.0</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
@@ -642,6 +679,9 @@
       <c r="C33" s="1">
         <v>26.0</v>
       </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
@@ -752,6 +792,9 @@
       <c r="C43" s="1">
         <v>5572.0</v>
       </c>
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
@@ -785,6 +828,9 @@
       <c r="C46" s="1">
         <v>101036.0</v>
       </c>
+      <c r="D46" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
@@ -818,6 +864,9 @@
       <c r="C49" s="1">
         <v>700008.0</v>
       </c>
+      <c r="D49" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
@@ -885,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -893,7 +942,7 @@
         <v>3.0</v>
       </c>
       <c r="B57" s="1">
-        <v>596100.0</v>
+        <v>20300.0</v>
       </c>
       <c r="C57" s="1">
         <v>1.0</v>
@@ -904,10 +953,13 @@
         <v>4.0</v>
       </c>
       <c r="B58" s="1">
-        <v>81501.0</v>
+        <v>35400.0</v>
       </c>
       <c r="C58" s="1">
         <v>2.0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -915,7 +967,7 @@
         <v>5.0</v>
       </c>
       <c r="B59" s="1">
-        <v>73799.0</v>
+        <v>26800.0</v>
       </c>
       <c r="C59" s="1">
         <v>3.0</v>
@@ -926,7 +978,7 @@
         <v>6.0</v>
       </c>
       <c r="B60" s="1">
-        <v>142500.0</v>
+        <v>39500.0</v>
       </c>
       <c r="C60" s="1">
         <v>5.0</v>
@@ -937,10 +989,13 @@
         <v>7.0</v>
       </c>
       <c r="B61" s="1">
-        <v>301299.0</v>
+        <v>89300.0</v>
       </c>
       <c r="C61" s="1">
-        <v>14.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -948,10 +1003,10 @@
         <v>8.0</v>
       </c>
       <c r="B62" s="1">
-        <v>211400.0</v>
+        <v>97800.0</v>
       </c>
       <c r="C62" s="1">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="63">
@@ -959,10 +1014,10 @@
         <v>9.0</v>
       </c>
       <c r="B63" s="1">
-        <v>217900.0</v>
+        <v>282400.0</v>
       </c>
       <c r="C63" s="1">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="64">
@@ -970,10 +1025,13 @@
         <v>10.0</v>
       </c>
       <c r="B64" s="1">
-        <v>749800.0</v>
+        <v>218300.0</v>
       </c>
       <c r="C64" s="1">
-        <v>40.0</v>
+        <v>29.0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -981,10 +1039,10 @@
         <v>11.0</v>
       </c>
       <c r="B65" s="1">
-        <v>762300.0</v>
+        <v>258900.0</v>
       </c>
       <c r="C65" s="1">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="66">
@@ -992,10 +1050,10 @@
         <v>12.0</v>
       </c>
       <c r="B66" s="1">
-        <v>722899.0</v>
+        <v>255200.0</v>
       </c>
       <c r="C66" s="1">
-        <v>43.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="67">
@@ -1003,10 +1061,10 @@
         <v>13.0</v>
       </c>
       <c r="B67" s="1">
-        <v>1855301.0</v>
+        <v>772900.0</v>
       </c>
       <c r="C67" s="1">
-        <v>143.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="68">
@@ -1014,10 +1072,10 @@
         <v>14.0</v>
       </c>
       <c r="B68" s="1">
-        <v>1590900.0</v>
+        <v>524200.0</v>
       </c>
       <c r="C68" s="1">
-        <v>187.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="69">
@@ -1025,10 +1083,10 @@
         <v>15.0</v>
       </c>
       <c r="B69" s="1">
-        <v>2443201.0</v>
+        <v>1090300.0</v>
       </c>
       <c r="C69" s="1">
-        <v>399.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="70">
@@ -1036,10 +1094,10 @@
         <v>16.0</v>
       </c>
       <c r="B70" s="1">
-        <v>2601800.0</v>
+        <v>773900.0</v>
       </c>
       <c r="C70" s="1">
-        <v>673.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="71">
@@ -1047,10 +1105,10 @@
         <v>17.0</v>
       </c>
       <c r="B71" s="1">
-        <v>4062199.0</v>
+        <v>1045000.0</v>
       </c>
       <c r="C71" s="1">
-        <v>1221.0</v>
+        <v>272.0</v>
       </c>
     </row>
     <row r="72">
@@ -1058,10 +1116,10 @@
         <v>18.0</v>
       </c>
       <c r="B72" s="1">
-        <v>4923000.0</v>
+        <v>1179400.0</v>
       </c>
       <c r="C72" s="1">
-        <v>2139.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="73">
@@ -1069,10 +1127,10 @@
         <v>19.0</v>
       </c>
       <c r="B73" s="1">
-        <v>1.12108E7</v>
+        <v>1549700.0</v>
       </c>
       <c r="C73" s="1">
-        <v>4997.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="74">
@@ -1080,10 +1138,13 @@
         <v>20.0</v>
       </c>
       <c r="B74" s="1">
-        <v>2.89867E7</v>
+        <v>2125200.0</v>
       </c>
       <c r="C74" s="1">
-        <v>10176.0</v>
+        <v>609.0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -1091,10 +1152,10 @@
         <v>21.0</v>
       </c>
       <c r="B75" s="1">
-        <v>2.6393301E7</v>
+        <v>1830200.0</v>
       </c>
       <c r="C75" s="1">
-        <v>10177.0</v>
+        <v>610.0</v>
       </c>
     </row>
     <row r="76">
@@ -1102,10 +1163,10 @@
         <v>22.0</v>
       </c>
       <c r="B76" s="1">
-        <v>2.7381001E7</v>
+        <v>1751700.0</v>
       </c>
       <c r="C76" s="1">
-        <v>10179.0</v>
+        <v>612.0</v>
       </c>
     </row>
     <row r="77">
@@ -1113,10 +1174,13 @@
         <v>23.0</v>
       </c>
       <c r="B77" s="1">
-        <v>1.845961E8</v>
+        <v>4617800.0</v>
       </c>
       <c r="C77" s="1">
-        <v>111212.0</v>
+        <v>1435.0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -1124,10 +1188,10 @@
         <v>24.0</v>
       </c>
       <c r="B78" s="1">
-        <v>9.03437E7</v>
+        <v>4152400.0</v>
       </c>
       <c r="C78" s="1">
-        <v>111213.0</v>
+        <v>1436.0</v>
       </c>
     </row>
     <row r="79">
@@ -1135,10 +1199,10 @@
         <v>25.0</v>
       </c>
       <c r="B79" s="1">
-        <v>8.6136E7</v>
+        <v>7570200.0</v>
       </c>
       <c r="C79" s="1">
-        <v>111215.0</v>
+        <v>1438.0</v>
       </c>
     </row>
     <row r="80">
@@ -1146,10 +1210,13 @@
         <v>26.0</v>
       </c>
       <c r="B80" s="1">
-        <v>9.615328E8</v>
+        <v>1.72872E7</v>
       </c>
       <c r="C80" s="1">
-        <v>811220.0</v>
+        <v>2863.0</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -1157,10 +1224,10 @@
         <v>27.0</v>
       </c>
       <c r="B81" s="1">
-        <v>8.55060499E8</v>
+        <v>1.55347E7</v>
       </c>
       <c r="C81" s="1">
-        <v>811221.0</v>
+        <v>2864.0</v>
       </c>
     </row>
     <row r="82">
@@ -1168,10 +1235,10 @@
         <v>28.0</v>
       </c>
       <c r="B82" s="1">
-        <v>8.63132399E8</v>
+        <v>9987300.0</v>
       </c>
       <c r="C82" s="1">
-        <v>811223.0</v>
+        <v>2866.0</v>
       </c>
     </row>
     <row r="83">
@@ -1179,10 +1246,10 @@
         <v>29.0</v>
       </c>
       <c r="B83" s="1">
-        <v>1.3367049E10</v>
+        <v>2.70278E7</v>
       </c>
       <c r="C83" s="1">
-        <v>1.0298827E7</v>
+        <v>5894.0</v>
       </c>
     </row>
     <row r="84">
@@ -1190,13 +1257,1312 @@
         <v>30.0</v>
       </c>
       <c r="B84" s="1">
-        <v>3.7862765499E10</v>
+        <v>2.45059E7</v>
       </c>
       <c r="C84" s="1">
-        <v>2.6479915E7</v>
+        <v>6522.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2.30191E7</v>
+      </c>
+      <c r="C85" s="1">
+        <v>7614.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B86" s="1">
+        <v>4.70987E7</v>
+      </c>
+      <c r="C86" s="1">
+        <v>10883.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B87" s="1">
+        <v>5.95258E7</v>
+      </c>
+      <c r="C87" s="1">
+        <v>13090.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B88" s="1">
+        <v>7.61856E7</v>
+      </c>
+      <c r="C88" s="1">
+        <v>14561.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1.446612E8</v>
+      </c>
+      <c r="C89" s="1">
+        <v>19843.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1.861824E8</v>
+      </c>
+      <c r="C90" s="1">
+        <v>24232.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2.417562E8</v>
+      </c>
+      <c r="C91" s="1">
+        <v>26842.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B92" s="1">
+        <v>4.239585E8</v>
+      </c>
+      <c r="C92" s="1">
+        <v>34986.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B93" s="1">
+        <v>7.131099E8</v>
+      </c>
+      <c r="C93" s="1">
+        <v>45431.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B94" s="1">
+        <v>9.941669E8</v>
+      </c>
+      <c r="C94" s="1">
+        <v>49849.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1.5965429E9</v>
+      </c>
+      <c r="C95" s="1">
+        <v>63662.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2.7265811E9</v>
+      </c>
+      <c r="C96" s="1">
+        <v>78461.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="B97" s="1">
+        <v>3.1360209E9</v>
+      </c>
+      <c r="C97" s="1">
+        <v>87623.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B98" s="1">
+        <v>5.8613561E9</v>
+      </c>
+      <c r="C98" s="1">
+        <v>109503.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1.06963967E10</v>
+      </c>
+      <c r="C99" s="1">
+        <v>135019.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B102" s="1">
+        <v>49700.0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B103" s="1">
+        <v>58400.0</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B104" s="1">
+        <v>197700.0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B105" s="1">
+        <v>106100.0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B106" s="1">
+        <v>116600.0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B107" s="1">
+        <v>110000.0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B108" s="1">
+        <v>143800.0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B109" s="1">
+        <v>390600.0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B110" s="1">
+        <v>391800.0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B111" s="1">
+        <v>309000.0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B112" s="1">
+        <v>859100.0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B113" s="1">
+        <v>758500.0</v>
+      </c>
+      <c r="C113" s="1">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1071500.0</v>
+      </c>
+      <c r="C114" s="1">
+        <v>114.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1128200.0</v>
+      </c>
+      <c r="C115" s="1">
+        <v>147.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1332900.0</v>
+      </c>
+      <c r="C116" s="1">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1334900.0</v>
+      </c>
+      <c r="C117" s="1">
+        <v>232.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1869800.0</v>
+      </c>
+      <c r="C118" s="1">
+        <v>312.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2554900.0</v>
+      </c>
+      <c r="C119" s="1">
+        <v>376.0</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2418400.0</v>
+      </c>
+      <c r="C120" s="1">
+        <v>377.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B121" s="1">
+        <v>3088400.0</v>
+      </c>
+      <c r="C121" s="1">
+        <v>379.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B122" s="1">
+        <v>6743600.0</v>
+      </c>
+      <c r="C122" s="1">
+        <v>816.0</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B123" s="1">
+        <v>5608700.0</v>
+      </c>
+      <c r="C123" s="1">
+        <v>817.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B124" s="1">
+        <v>3576900.0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>819.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B125" s="1">
+        <v>7129200.0</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1575.0</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B126" s="1">
+        <v>5163300.0</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1576.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B127" s="1">
+        <v>6047500.0</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1578.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1.22357E7</v>
+      </c>
+      <c r="C128" s="1">
+        <v>3001.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1.65336E7</v>
+      </c>
+      <c r="C129" s="1">
+        <v>3034.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1.69846E7</v>
+      </c>
+      <c r="C130" s="1">
+        <v>3664.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B131" s="1">
+        <v>2.57266E7</v>
+      </c>
+      <c r="C131" s="1">
+        <v>4963.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B132" s="1">
+        <v>3.03304E7</v>
+      </c>
+      <c r="C132" s="1">
+        <v>5283.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B133" s="1">
+        <v>3.49931E7</v>
+      </c>
+      <c r="C133" s="1">
+        <v>6399.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B134" s="1">
+        <v>6.24392E7</v>
+      </c>
+      <c r="C134" s="1">
+        <v>8469.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B135" s="1">
+        <v>7.81137E7</v>
+      </c>
+      <c r="C135" s="1">
+        <v>9052.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B136" s="1">
+        <v>9.23697E7</v>
+      </c>
+      <c r="C136" s="1">
+        <v>10857.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1.344164E8</v>
+      </c>
+      <c r="C137" s="1">
+        <v>14153.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B138" s="1">
+        <v>2.531294E8</v>
+      </c>
+      <c r="C138" s="1">
+        <v>19429.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B139" s="1">
+        <v>3.343438E8</v>
+      </c>
+      <c r="C139" s="1">
+        <v>21792.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B140" s="1">
+        <v>5.008936E8</v>
+      </c>
+      <c r="C140" s="1">
+        <v>26412.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="B141" s="1">
+        <v>7.704843E8</v>
+      </c>
+      <c r="C141" s="1">
+        <v>33068.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1.0593802E9</v>
+      </c>
+      <c r="C142" s="1">
+        <v>36833.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1.1920457E9</v>
+      </c>
+      <c r="C143" s="1">
+        <v>43261.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B144" s="1">
+        <v>2.6999707E9</v>
+      </c>
+      <c r="C144" s="1">
+        <v>54972.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="B145" s="1">
+        <v>2.7463268E9</v>
+      </c>
+      <c r="C145" s="1">
+        <v>64053.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B146" s="1">
+        <v>3.967893E9</v>
+      </c>
+      <c r="C146" s="1">
+        <v>73983.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B147" s="1">
+        <v>6.9985216E9</v>
+      </c>
+      <c r="C147" s="1">
+        <v>94829.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B148" s="1">
+        <v>8.6481974E9</v>
+      </c>
+      <c r="C148" s="1">
+        <v>106158.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1.52865699E10</v>
+      </c>
+      <c r="C149" s="1">
+        <v>130788.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B152" s="1">
+        <v>667900.0</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B153" s="1">
+        <v>121200.0</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B154" s="1">
+        <v>58100.0</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B155" s="1">
+        <v>72000.0</v>
+      </c>
+      <c r="C155" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B156" s="1">
+        <v>148300.0</v>
+      </c>
+      <c r="C156" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B157" s="1">
+        <v>55500.0</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B158" s="1">
+        <v>87300.0</v>
+      </c>
+      <c r="C158" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B159" s="1">
+        <v>174100.0</v>
+      </c>
+      <c r="C159" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B160" s="1">
+        <v>51400.0</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B161" s="1">
+        <v>56100.0</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B162" s="1">
+        <v>121700.0</v>
+      </c>
+      <c r="C162" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B163" s="1">
+        <v>142600.0</v>
+      </c>
+      <c r="C163" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B164" s="1">
+        <v>106800.0</v>
+      </c>
+      <c r="C164" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B165" s="1">
+        <v>162900.0</v>
+      </c>
+      <c r="C165" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B166" s="1">
+        <v>178500.0</v>
+      </c>
+      <c r="C166" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B167" s="1">
+        <v>80700.0</v>
+      </c>
+      <c r="C167" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B168" s="1">
+        <v>129600.0</v>
+      </c>
+      <c r="C168" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B169" s="1">
+        <v>202300.0</v>
+      </c>
+      <c r="C169" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B170" s="1">
+        <v>47000.0</v>
+      </c>
+      <c r="C170" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B171" s="1">
+        <v>74300.0</v>
+      </c>
+      <c r="C171" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B172" s="1">
+        <v>345400.0</v>
+      </c>
+      <c r="C172" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B173" s="1">
+        <v>67400.0</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B174" s="1">
+        <v>98700.0</v>
+      </c>
+      <c r="C174" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B175" s="1">
+        <v>165300.0</v>
+      </c>
+      <c r="C175" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B176" s="1">
+        <v>33100.0</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B177" s="1">
+        <v>58900.0</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B178" s="1">
+        <v>123100.0</v>
+      </c>
+      <c r="C178" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B179" s="1">
+        <v>67700.0</v>
+      </c>
+      <c r="C179" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B180" s="1">
+        <v>72400.0</v>
+      </c>
+      <c r="C180" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B181" s="1">
+        <v>215400.0</v>
+      </c>
+      <c r="C181" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B182" s="1">
+        <v>92700.0</v>
+      </c>
+      <c r="C182" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B183" s="1">
+        <v>70100.0</v>
+      </c>
+      <c r="C183" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B184" s="1">
+        <v>167700.0</v>
+      </c>
+      <c r="C184" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B185" s="1">
+        <v>221100.0</v>
+      </c>
+      <c r="C185" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B186" s="1">
+        <v>49100.0</v>
+      </c>
+      <c r="C186" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B187" s="1">
+        <v>167400.0</v>
+      </c>
+      <c r="C187" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B188" s="1">
+        <v>343300.0</v>
+      </c>
+      <c r="C188" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B189" s="1">
+        <v>32900.0</v>
+      </c>
+      <c r="C189" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B190" s="1">
+        <v>93700.0</v>
+      </c>
+      <c r="C190" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="B191" s="1">
+        <v>80200.0</v>
+      </c>
+      <c r="C191" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="B192" s="1">
+        <v>29000.0</v>
+      </c>
+      <c r="C192" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B193" s="1">
+        <v>71600.0</v>
+      </c>
+      <c r="C193" s="1">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B194" s="1">
+        <v>269100.0</v>
+      </c>
+      <c r="C194" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="B195" s="1">
+        <v>39700.0</v>
+      </c>
+      <c r="C195" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B196" s="1">
+        <v>72900.0</v>
+      </c>
+      <c r="C196" s="1">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B197" s="1">
+        <v>61000.0</v>
+      </c>
+      <c r="C197" s="1">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B198" s="1">
+        <v>22100.0</v>
+      </c>
+      <c r="C198" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B199" s="1">
+        <v>595900.0</v>
+      </c>
+      <c r="C199" s="1">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B200" s="1">
+        <v>18200.0</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>